--- a/analysis/results/Q2/univariate_analysis/significant_taxa_colon.xlsx
+++ b/analysis/results/Q2/univariate_analysis/significant_taxa_colon.xlsx
@@ -31,6 +31,12 @@
     <t xml:space="preserve">padj</t>
   </si>
   <si>
+    <t xml:space="preserve">Enterococcus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k__Bacteria;p__Firmicutes;c__Bacilli;o__Lactobacillales;f__Enterococcaceae;g__Enterococcus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rothia</t>
   </si>
   <si>
@@ -287,12 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">k__Bacteria;p__Campylobacterota;c__Campylobacteria;o__Campylobacterales;f__Campylobacteraceae;g__Campylobacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterococcus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k__Bacteria;p__Firmicutes;c__Bacilli;o__Lactobacillales;f__Enterococcaceae;g__Enterococcus</t>
   </si>
   <si>
     <t xml:space="preserve">Lacticaseibacillus</t>
@@ -743,6 +743,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.52375055184454</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00400735815892072</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0440809397481279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -776,10 +793,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1.69501589808674</v>
@@ -793,10 +810,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>-2.25651000777065</v>
@@ -810,10 +827,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>-1.78880045992394</v>
@@ -827,10 +844,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>-1.55914036123738</v>
@@ -844,10 +861,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>-4.00883114349325</v>
@@ -861,10 +878,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>-3.02189350183472</v>
@@ -878,10 +895,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>-2.38376459483447</v>
@@ -895,10 +912,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>-4.1302183233398</v>
@@ -912,10 +929,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>-4.18121762470479</v>
@@ -929,10 +946,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
         <v>-2.80041002767742</v>
@@ -946,10 +963,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>-3.20976064708032</v>
@@ -963,10 +980,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>-1.95814551462424</v>
@@ -980,10 +997,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>-2.16248472287876</v>
@@ -997,10 +1014,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
         <v>2.7600043520708</v>
@@ -1014,10 +1031,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
         <v>1.24292248569585</v>
@@ -1031,10 +1048,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
         <v>2.98283343748001</v>
@@ -1048,10 +1065,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
         <v>-3.11517851321959</v>
@@ -1065,10 +1082,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="n">
         <v>-2.29545054977962</v>
@@ -1082,10 +1099,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
         <v>-1.6522634932894</v>
@@ -1099,10 +1116,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" t="n">
         <v>1.58522289557123</v>
@@ -1116,10 +1133,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" t="n">
         <v>-1.68556704469196</v>
@@ -1133,10 +1150,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n">
         <v>-1.74952599021138</v>
@@ -1150,10 +1167,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
         <v>-2.07465754635911</v>
@@ -1167,10 +1184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
         <v>-2.24775105743392</v>
@@ -1184,10 +1201,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" t="n">
         <v>-1.67229155657155</v>
@@ -1201,10 +1218,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" t="n">
         <v>1.92264633176157</v>
@@ -1218,10 +1235,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
         <v>-1.19356759436682</v>
@@ -1235,10 +1252,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="n">
         <v>-2.22957008117044</v>
@@ -1252,10 +1269,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" t="n">
         <v>-3.49199069934592</v>
@@ -1269,10 +1286,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" t="n">
         <v>-2.67366231019029</v>
@@ -1286,10 +1303,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" t="n">
         <v>-2.31681841248866</v>
@@ -1303,10 +1320,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" t="n">
         <v>-2.4017461679119</v>
@@ -1320,10 +1337,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" t="n">
         <v>-2.05294235954104</v>
@@ -1337,10 +1354,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" t="n">
         <v>-2.59081133033246</v>
@@ -1354,10 +1371,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" t="n">
         <v>2.44094264652979</v>
@@ -1371,10 +1388,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" t="n">
         <v>-3.48623111633876</v>
@@ -1388,10 +1405,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" t="n">
         <v>3.62115319301738</v>
@@ -1405,10 +1422,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" t="n">
         <v>1.42376868031635</v>
@@ -1422,10 +1439,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="n">
         <v>3.74679881868303</v>
@@ -1439,10 +1456,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C41" t="n">
         <v>2.38373150532854</v>
@@ -1456,10 +1473,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" t="n">
         <v>3.76945701452746</v>
@@ -1473,10 +1490,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43" t="n">
         <v>0.922392223666167</v>
@@ -1490,10 +1507,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" t="n">
         <v>0.792388468492346</v>
@@ -1507,10 +1524,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
         <v>3.11813049107399</v>
@@ -1793,10 +1810,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>-1.64793215166348</v>
@@ -1810,10 +1827,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>-3.27239462555674</v>
@@ -1827,10 +1844,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
         <v>-1.37635970242324</v>
@@ -1844,10 +1861,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>-1.5387012575923</v>
@@ -1861,10 +1878,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
         <v>2.2445010851969</v>
@@ -1878,10 +1895,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
         <v>1.25417589081558</v>
@@ -1895,10 +1912,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
         <v>2.86018314073015</v>
@@ -1912,10 +1929,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>-1.25877776092709</v>
@@ -1929,10 +1946,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
         <v>-1.0115347802655</v>
@@ -1946,10 +1963,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" t="n">
         <v>-0.893660420496253</v>
@@ -1980,10 +1997,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="n">
         <v>-1.67453751506678</v>
@@ -1997,10 +2014,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
         <v>-2.030178365435</v>
@@ -2014,10 +2031,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" t="n">
         <v>-1.44421225318495</v>
@@ -2031,10 +2048,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" t="n">
         <v>-1.12825282295501</v>
@@ -2048,10 +2065,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="n">
         <v>2.85022902792981</v>
@@ -2065,10 +2082,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="n">
         <v>3.70615966102087</v>
@@ -2082,10 +2099,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" t="n">
         <v>2.48002962251513</v>
@@ -2099,10 +2116,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" t="n">
         <v>3.87208072570446</v>
@@ -2116,10 +2133,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" t="n">
         <v>1.41587195345876</v>
@@ -2133,10 +2150,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
         <v>1.80679910098872</v>
